--- a/dist/files/TEMPLATE_ReceiptSplitter_ByMoe_v5.xlsx
+++ b/dist/files/TEMPLATE_ReceiptSplitter_ByMoe_v5.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnc-my.sharepoint.com/personal/joseph_renner_pnc_com/Documents/2)Personal/Receipts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/583147fcbfea20da/Receipt Splitter project/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CA90C786-6DD8-4C00-A734-969D2C4B458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6744F81-763B-478A-AB06-E453469B57CE}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{CA90C786-6DD8-4C00-A734-969D2C4B458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05BD98F-A28F-43DF-AAB4-780C7E0C8C16}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{612115ED-04A2-4592-8706-3196440F10EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Guidance" sheetId="3" r:id="rId1"/>
+    <sheet name="README" sheetId="3" r:id="rId1"/>
     <sheet name="expenses" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Item</t>
   </si>
@@ -113,18 +113,12 @@
     <t>Tip $</t>
   </si>
   <si>
-    <t>Tax Allcoation</t>
-  </si>
-  <si>
     <t>Tip Allocation</t>
   </si>
   <si>
     <t>Allocated Cost</t>
   </si>
   <si>
-    <t>Recipt Total</t>
-  </si>
-  <si>
     <t>Match?</t>
   </si>
   <si>
@@ -134,12 +128,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>Remaining</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -159,9 +147,6 @@
   </si>
   <si>
     <t>– – – – – – – – – – – – – – – – – – – – – – – – – – – – – –</t>
-  </si>
-  <si>
-    <t>↑ to add items, highlight this row and insert a row</t>
   </si>
   <si>
     <t>Input Item, Cost, # (count of items) and people</t>
@@ -270,20 +255,6 @@
     <t>espresso martini</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">cole; sophia; joe; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TBD</t>
-    </r>
-  </si>
-  <si>
     <t>cole</t>
   </si>
   <si>
@@ -296,13 +267,49 @@
     <t>Venmo: @jrenn3</t>
   </si>
   <si>
-    <t>← change Venmo</t>
-  </si>
-  <si>
     <t>Cell # last 4: 9965</t>
   </si>
   <si>
-    <t>← change Cell last 4</t>
+    <t>cole(2); sophia(1); joe(1)</t>
+  </si>
+  <si>
+    <t>joe;cole</t>
+  </si>
+  <si>
+    <t>maggie;joe;cole;sophia;emma</t>
+  </si>
+  <si>
+    <t>1) save as and rename the file something recognizable</t>
+  </si>
+  <si>
+    <t>2) ↓ change the name here to something recognizable</t>
+  </si>
+  <si>
+    <t>← 3b) use parenetical and numbers to allocate a specific number of an item</t>
+  </si>
+  <si>
+    <t>Receipt Total</t>
+  </si>
+  <si>
+    <t>Tax Allocation</t>
+  </si>
+  <si>
+    <t>4) ↑ to add items, highlight the row above this cell and insert a row</t>
+  </si>
+  <si>
+    <t>5) ↑ drag down these formulas if needed</t>
+  </si>
+  <si>
+    <t>← 3a) add items and names. Delimit names with a semicolon</t>
+  </si>
+  <si>
+    <t>← 6) don’t forget tax, tips and fees</t>
+  </si>
+  <si>
+    <t>← 7) change Venmo and Cell last 4</t>
+  </si>
+  <si>
+    <t>← 8) screenshot from the blue header down to the names at the bottom to share</t>
   </si>
 </sst>
 </file>
@@ -314,7 +321,7 @@
     <numFmt numFmtId="165" formatCode="_(#,##0.00_);\(#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00_);&quot;$&quot;\ \(#,##0.00\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -393,12 +400,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -432,85 +433,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -518,26 +466,59 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,103 +541,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3962175" cy="254557"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FC1D05-9EE2-4013-A2D8-8BA696E316D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2486025" y="161925"/>
-          <a:ext cx="3962175" cy="254557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>SAVE AS AND RENAME.</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> THEN DELETE THIS TEXT BOX</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -694,7 +582,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -800,7 +688,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -942,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,43 +852,43 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1011,1179 +899,1199 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9F5F-FFAE-4545-9A94-F434F54B2D39}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:AA65"/>
+  <dimension ref="B2:AA68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="30" style="34" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="7.5703125" style="9" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30" style="31" customWidth="1"/>
+    <col min="6" max="6" width="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="7.5703125" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12">
-        <f>SUM(C35:C51)</f>
-        <v>227.69453320291274</v>
-      </c>
-    </row>
-    <row r="3" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12">
-        <f>VLOOKUP("Total",B12:C118,2,0)</f>
+      <c r="C4" s="11">
+        <f>SUM(C38:C54)</f>
+        <v>235.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="11">
+        <f>VLOOKUP("Total",B15:C121,2,0)</f>
         <v>235.65999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="13" t="b">
-        <f>C4=C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="b">
+        <f>C6=C4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C9" s="14">
         <f>VLOOKUP("Tax $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
         <v>0.11759591348766441</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C10" s="14">
         <f>VLOOKUP("Tip $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
         <v>0.16302575806977504</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="15">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="14">
         <f>VLOOKUP("Fee $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="2:27" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="B12" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27" t="s">
+      <c r="J15" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="26" t="str" cm="1">
+        <f t="array" ref="L15:AA15">TRANSPOSE(B39:B54)</f>
+        <v>joe</v>
+      </c>
+      <c r="M15" s="26" t="str">
+        <v>cole</v>
+      </c>
+      <c r="N15" s="26" t="str">
+        <v>sophia</v>
+      </c>
+      <c r="O15" s="26" t="str">
+        <v>emma</v>
+      </c>
+      <c r="P15" s="26" t="str">
+        <v>maggie</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0</v>
+      </c>
+      <c r="S15" s="26">
+        <v>0</v>
+      </c>
+      <c r="T15" s="26">
+        <v>0</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0</v>
+      </c>
+      <c r="W15" s="26">
+        <v>0</v>
+      </c>
+      <c r="X15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="19">
         <v>8</v>
       </c>
-      <c r="H12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="L12" s="27" t="str" cm="1">
-        <f t="array" ref="L12:AA12">TRANSPOSE(B36:B51)</f>
-        <v>maggie</v>
-      </c>
-      <c r="M12" s="27" t="str">
-        <v>joe</v>
-      </c>
-      <c r="N12" s="27" t="str">
-        <v>sophia</v>
-      </c>
-      <c r="O12" s="27" t="str">
-        <v>cole</v>
-      </c>
-      <c r="P12" s="27" t="str">
-        <v>TBD</v>
-      </c>
-      <c r="Q12" s="27" t="str">
-        <v>emma</v>
-      </c>
-      <c r="R12" s="27">
-        <v>0</v>
-      </c>
-      <c r="S12" s="27">
-        <v>0</v>
-      </c>
-      <c r="T12" s="27">
-        <v>0</v>
-      </c>
-      <c r="U12" s="27">
-        <v>0</v>
-      </c>
-      <c r="V12" s="27">
-        <v>0</v>
-      </c>
-      <c r="W12" s="27">
-        <v>0</v>
-      </c>
-      <c r="X12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="27">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="40">
-        <v>8</v>
-      </c>
-      <c r="D13" s="39">
-        <v>1</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="7">
-        <f>C13*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>0.94076730790131524</v>
-      </c>
-      <c r="H13" s="7">
-        <f>C13*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.3042060645582003</v>
-      </c>
-      <c r="I13" s="7">
-        <f>C13*VLOOKUP("Fee %",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" ref="J13" si="0">SUM(C13,G13:I13)</f>
-        <v>10.244973372459516</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8">
-        <f t="shared" ref="L13:U24" si="1">IF($E13="All",$J13/COUNTA($B$36:$B$51),IFERROR($J13/$D13*MID($E13,(FIND(L$12,$E13)+LEN(L$12))+1,SEARCH(")",$E13,FIND(L$12,$E13)+LEN(L$12))-(FIND(L$12,$E13)+LEN(L$12))-1),IF(ISNUMBER(SEARCH(L$12,$E13)),$J13/(LEN($E13)-LEN(SUBSTITUTE($E13,";",""))+1),0)))</f>
-        <v>10.244973372459516</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="40">
-        <v>16</v>
-      </c>
-      <c r="D14" s="39">
+      <c r="D16" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="7">
-        <f>C14*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.8815346158026305</v>
-      </c>
-      <c r="H14" s="7">
-        <f>C14*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.6084121291164006</v>
-      </c>
-      <c r="I14" s="7">
-        <f>C14*VLOOKUP("Fee %",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" ref="J14:J24" si="2">SUM(C14,G14:I14)</f>
-        <v>20.489946744919031</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="1"/>
-        <v>20.489946744919031</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="40">
-        <v>10</v>
-      </c>
-      <c r="D15" s="39">
-        <v>1</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="7">
-        <f>C15*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.1759591348766441</v>
-      </c>
-      <c r="H15" s="7">
-        <f>C15*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.6302575806977504</v>
-      </c>
-      <c r="I15" s="7">
-        <f>C15*VLOOKUP("Fee %",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="2"/>
-        <v>12.806216715574394</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="1"/>
-        <v>12.806216715574394</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="40">
-        <v>21</v>
-      </c>
-      <c r="D16" s="39">
-        <v>3</v>
-      </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="G16" s="7">
         <f>C16*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>2.4695141832409524</v>
+        <v>0.94076730790131524</v>
       </c>
       <c r="H16" s="7">
         <f>C16*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>3.4235409194652759</v>
+        <v>1.3042060645582003</v>
       </c>
       <c r="I16" s="7">
         <f>C16*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f t="shared" si="2"/>
-        <v>26.893055102706228</v>
+        <f>SUM(C16,G16:I16)</f>
+        <v>10.244973372459516</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(L$15,$E16)+LEN(L$15))+1,SEARCH(")",$E16,FIND(L$15,$E16)+LEN(L$15))-(FIND(L$15,$E16)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <v>5.1224866862297578</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(M$15,$E16)+LEN(M$15))+1,SEARCH(")",$E16,FIND(M$15,$E16)+LEN(M$15))-(FIND(M$15,$E16)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <v>5.1224866862297578</v>
       </c>
       <c r="N16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(N$15,$E16)+LEN(N$15))+1,SEARCH(")",$E16,FIND(N$15,$E16)+LEN(N$15))-(FIND(N$15,$E16)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <f t="shared" si="1"/>
-        <v>26.893055102706228</v>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(O$15,$E16)+LEN(O$15))+1,SEARCH(")",$E16,FIND(O$15,$E16)+LEN(O$15))-(FIND(O$15,$E16)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(P$15,$E16)+LEN(P$15))+1,SEARCH(")",$E16,FIND(P$15,$E16)+LEN(P$15))-(FIND(P$15,$E16)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(Q$15,$E16)+LEN(Q$15))+1,SEARCH(")",$E16,FIND(Q$15,$E16)+LEN(Q$15))-(FIND(Q$15,$E16)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="R16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(R$15,$E16)+LEN(R$15))+1,SEARCH(")",$E16,FIND(R$15,$E16)+LEN(R$15))-(FIND(R$15,$E16)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(S$15,$E16)+LEN(S$15))+1,SEARCH(")",$E16,FIND(S$15,$E16)+LEN(S$15))-(FIND(S$15,$E16)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(T$15,$E16)+LEN(T$15))+1,SEARCH(")",$E16,FIND(T$15,$E16)+LEN(T$15))-(FIND(T$15,$E16)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(U$15,$E16)+LEN(U$15))+1,SEARCH(")",$E16,FIND(U$15,$E16)+LEN(U$15))-(FIND(U$15,$E16)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V16" s="8"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="40">
-        <v>44</v>
-      </c>
-      <c r="D17" s="39">
-        <v>4</v>
-      </c>
-      <c r="E17" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="16"/>
+      <c r="B17" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="19">
+        <v>16</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="7">
         <f>C17*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>5.1742201934572343</v>
+        <v>1.8815346158026305</v>
       </c>
       <c r="H17" s="7">
         <f>C17*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>7.1731333550701013</v>
+        <v>2.6084121291164006</v>
       </c>
       <c r="I17" s="7">
         <f>C17*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>56.34735354852733</v>
+        <f>SUM(C17,G17:I17)</f>
+        <v>20.489946744919031</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(L$15,$E17)+LEN(L$15))+1,SEARCH(")",$E17,FIND(L$15,$E17)+LEN(L$15))-(FIND(L$15,$E17)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <v>10.244973372459516</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="1"/>
-        <v>14.086838387131833</v>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(M$15,$E17)+LEN(M$15))+1,SEARCH(")",$E17,FIND(M$15,$E17)+LEN(M$15))-(FIND(M$15,$E17)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <v>10.244973372459516</v>
       </c>
       <c r="N17" s="8">
-        <f t="shared" si="1"/>
-        <v>14.086838387131833</v>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(N$15,$E17)+LEN(N$15))+1,SEARCH(")",$E17,FIND(N$15,$E17)+LEN(N$15))-(FIND(N$15,$E17)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="O17" s="8">
-        <f t="shared" si="1"/>
-        <v>14.086838387131833</v>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(O$15,$E17)+LEN(O$15))+1,SEARCH(")",$E17,FIND(O$15,$E17)+LEN(O$15))-(FIND(O$15,$E17)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="1"/>
-        <v>14.086838387131833</v>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(P$15,$E17)+LEN(P$15))+1,SEARCH(")",$E17,FIND(P$15,$E17)+LEN(P$15))-(FIND(P$15,$E17)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(Q$15,$E17)+LEN(Q$15))+1,SEARCH(")",$E17,FIND(Q$15,$E17)+LEN(Q$15))-(FIND(Q$15,$E17)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="R17" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(R$15,$E17)+LEN(R$15))+1,SEARCH(")",$E17,FIND(R$15,$E17)+LEN(R$15))-(FIND(R$15,$E17)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(S$15,$E17)+LEN(S$15))+1,SEARCH(")",$E17,FIND(S$15,$E17)+LEN(S$15))-(FIND(S$15,$E17)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(T$15,$E17)+LEN(T$15))+1,SEARCH(")",$E17,FIND(T$15,$E17)+LEN(T$15))-(FIND(T$15,$E17)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(U$15,$E17)+LEN(U$15))+1,SEARCH(")",$E17,FIND(U$15,$E17)+LEN(U$15))-(FIND(U$15,$E17)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="40">
-        <v>12</v>
-      </c>
-      <c r="D18" s="39">
+      <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="19">
+        <v>10</v>
+      </c>
+      <c r="D18" s="18">
         <v>1</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="16"/>
+      <c r="E18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="15"/>
       <c r="G18" s="7">
         <f>C18*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.4111509618519729</v>
+        <v>1.1759591348766441</v>
       </c>
       <c r="H18" s="7">
         <f>C18*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.9563090968373005</v>
+        <v>1.6302575806977504</v>
       </c>
       <c r="I18" s="7">
         <f>C18*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>15.367460058689273</v>
+        <f>SUM(C18,G18:I18)</f>
+        <v>12.806216715574394</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(L$15,$E18)+LEN(L$15))+1,SEARCH(")",$E18,FIND(L$15,$E18)+LEN(L$15))-(FIND(L$15,$E18)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(M$15,$E18)+LEN(M$15))+1,SEARCH(")",$E18,FIND(M$15,$E18)+LEN(M$15))-(FIND(M$15,$E18)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="N18" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(N$15,$E18)+LEN(N$15))+1,SEARCH(")",$E18,FIND(N$15,$E18)+LEN(N$15))-(FIND(N$15,$E18)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <v>12.806216715574394</v>
       </c>
       <c r="O18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(O$15,$E18)+LEN(O$15))+1,SEARCH(")",$E18,FIND(O$15,$E18)+LEN(O$15))-(FIND(O$15,$E18)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(P$15,$E18)+LEN(P$15))+1,SEARCH(")",$E18,FIND(P$15,$E18)+LEN(P$15))-(FIND(P$15,$E18)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="1"/>
-        <v>15.367460058689273</v>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(Q$15,$E18)+LEN(Q$15))+1,SEARCH(")",$E18,FIND(Q$15,$E18)+LEN(Q$15))-(FIND(Q$15,$E18)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="R18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(R$15,$E18)+LEN(R$15))+1,SEARCH(")",$E18,FIND(R$15,$E18)+LEN(R$15))-(FIND(R$15,$E18)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(S$15,$E18)+LEN(S$15))+1,SEARCH(")",$E18,FIND(S$15,$E18)+LEN(S$15))-(FIND(S$15,$E18)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(T$15,$E18)+LEN(T$15))+1,SEARCH(")",$E18,FIND(T$15,$E18)+LEN(T$15))-(FIND(T$15,$E18)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U18" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(U$15,$E18)+LEN(U$15))+1,SEARCH(")",$E18,FIND(U$15,$E18)+LEN(U$15))-(FIND(U$15,$E18)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="40">
-        <v>14.95</v>
-      </c>
-      <c r="D19" s="39">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="16"/>
+      <c r="B19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="19">
+        <v>21</v>
+      </c>
+      <c r="D19" s="18">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="7">
         <f>C19*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.7580589066405827</v>
+        <v>2.4695141832409524</v>
       </c>
       <c r="H19" s="7">
         <f>C19*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.4372350831431366</v>
+        <v>3.4235409194652759</v>
       </c>
       <c r="I19" s="7">
         <f>C19*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <f t="shared" si="2"/>
-        <v>19.145293989783717</v>
+        <f>SUM(C19,G19:I19)</f>
+        <v>26.893055102706228</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(L$15,$E19)+LEN(L$15))+1,SEARCH(")",$E19,FIND(L$15,$E19)+LEN(L$15))-(FIND(L$15,$E19)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(M$15,$E19)+LEN(M$15))+1,SEARCH(")",$E19,FIND(M$15,$E19)+LEN(M$15))-(FIND(M$15,$E19)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <v>26.893055102706228</v>
       </c>
       <c r="N19" s="8">
-        <f t="shared" si="1"/>
-        <v>9.5726469948918584</v>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(N$15,$E19)+LEN(N$15))+1,SEARCH(")",$E19,FIND(N$15,$E19)+LEN(N$15))-(FIND(N$15,$E19)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="O19" s="8">
-        <f t="shared" si="1"/>
-        <v>9.5726469948918584</v>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(O$15,$E19)+LEN(O$15))+1,SEARCH(")",$E19,FIND(O$15,$E19)+LEN(O$15))-(FIND(O$15,$E19)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(P$15,$E19)+LEN(P$15))+1,SEARCH(")",$E19,FIND(P$15,$E19)+LEN(P$15))-(FIND(P$15,$E19)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(Q$15,$E19)+LEN(Q$15))+1,SEARCH(")",$E19,FIND(Q$15,$E19)+LEN(Q$15))-(FIND(Q$15,$E19)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="R19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(R$15,$E19)+LEN(R$15))+1,SEARCH(")",$E19,FIND(R$15,$E19)+LEN(R$15))-(FIND(R$15,$E19)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(S$15,$E19)+LEN(S$15))+1,SEARCH(")",$E19,FIND(S$15,$E19)+LEN(S$15))-(FIND(S$15,$E19)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(T$15,$E19)+LEN(T$15))+1,SEARCH(")",$E19,FIND(T$15,$E19)+LEN(T$15))-(FIND(T$15,$E19)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(U$15,$E19)+LEN(U$15))+1,SEARCH(")",$E19,FIND(U$15,$E19)+LEN(U$15))-(FIND(U$15,$E19)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="40">
-        <v>16.95</v>
-      </c>
-      <c r="D20" s="39">
-        <v>1</v>
-      </c>
-      <c r="E20" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="16"/>
+      <c r="B20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44</v>
+      </c>
+      <c r="D20" s="18">
+        <v>4</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>54</v>
+      </c>
       <c r="G20" s="7">
         <f>C20*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.9932507336159115</v>
+        <v>5.1742201934572343</v>
       </c>
       <c r="H20" s="7">
         <f>C20*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.7632865992826869</v>
+        <v>7.1731333550701013</v>
       </c>
       <c r="I20" s="7">
         <f>C20*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <f t="shared" si="2"/>
-        <v>21.706537332898598</v>
+        <f>SUM(C20,G20:I20)</f>
+        <v>56.34735354852733</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(L$15,$E20)+LEN(L$15))+1,SEARCH(")",$E20,FIND(L$15,$E20)+LEN(L$15))-(FIND(L$15,$E20)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <v>14.086838387131833</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="1"/>
-        <v>21.706537332898598</v>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(M$15,$E20)+LEN(M$15))+1,SEARCH(")",$E20,FIND(M$15,$E20)+LEN(M$15))-(FIND(M$15,$E20)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <v>28.173676774263665</v>
       </c>
       <c r="N20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(N$15,$E20)+LEN(N$15))+1,SEARCH(")",$E20,FIND(N$15,$E20)+LEN(N$15))-(FIND(N$15,$E20)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <v>14.086838387131833</v>
       </c>
       <c r="O20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(O$15,$E20)+LEN(O$15))+1,SEARCH(")",$E20,FIND(O$15,$E20)+LEN(O$15))-(FIND(O$15,$E20)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(P$15,$E20)+LEN(P$15))+1,SEARCH(")",$E20,FIND(P$15,$E20)+LEN(P$15))-(FIND(P$15,$E20)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(Q$15,$E20)+LEN(Q$15))+1,SEARCH(")",$E20,FIND(Q$15,$E20)+LEN(Q$15))-(FIND(Q$15,$E20)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="R20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(R$15,$E20)+LEN(R$15))+1,SEARCH(")",$E20,FIND(R$15,$E20)+LEN(R$15))-(FIND(R$15,$E20)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(S$15,$E20)+LEN(S$15))+1,SEARCH(")",$E20,FIND(S$15,$E20)+LEN(S$15))-(FIND(S$15,$E20)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(T$15,$E20)+LEN(T$15))+1,SEARCH(")",$E20,FIND(T$15,$E20)+LEN(T$15))-(FIND(T$15,$E20)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(U$15,$E20)+LEN(U$15))+1,SEARCH(")",$E20,FIND(U$15,$E20)+LEN(U$15))-(FIND(U$15,$E20)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="40">
-        <v>15.95</v>
-      </c>
-      <c r="D21" s="39">
+      <c r="B21" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="19">
+        <v>12</v>
+      </c>
+      <c r="D21" s="18">
         <v>1</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="16"/>
+      <c r="E21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="7">
         <f>C21*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.8756548201282472</v>
+        <v>1.4111509618519729</v>
       </c>
       <c r="H21" s="7">
         <f>C21*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.6002608412129118</v>
+        <v>1.9563090968373005</v>
       </c>
       <c r="I21" s="7">
         <f>C21*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="2"/>
-        <v>20.425915661341158</v>
+        <f>SUM(C21,G21:I21)</f>
+        <v>15.367460058689273</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(L$15,$E21)+LEN(L$15))+1,SEARCH(")",$E21,FIND(L$15,$E21)+LEN(L$15))-(FIND(L$15,$E21)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(M$15,$E21)+LEN(M$15))+1,SEARCH(")",$E21,FIND(M$15,$E21)+LEN(M$15))-(FIND(M$15,$E21)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(N$15,$E21)+LEN(N$15))+1,SEARCH(")",$E21,FIND(N$15,$E21)+LEN(N$15))-(FIND(N$15,$E21)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(O$15,$E21)+LEN(O$15))+1,SEARCH(")",$E21,FIND(O$15,$E21)+LEN(O$15))-(FIND(O$15,$E21)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <v>15.367460058689273</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(P$15,$E21)+LEN(P$15))+1,SEARCH(")",$E21,FIND(P$15,$E21)+LEN(P$15))-(FIND(P$15,$E21)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="1"/>
-        <v>20.425915661341158</v>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(Q$15,$E21)+LEN(Q$15))+1,SEARCH(")",$E21,FIND(Q$15,$E21)+LEN(Q$15))-(FIND(Q$15,$E21)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(R$15,$E21)+LEN(R$15))+1,SEARCH(")",$E21,FIND(R$15,$E21)+LEN(R$15))-(FIND(R$15,$E21)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(S$15,$E21)+LEN(S$15))+1,SEARCH(")",$E21,FIND(S$15,$E21)+LEN(S$15))-(FIND(S$15,$E21)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(T$15,$E21)+LEN(T$15))+1,SEARCH(")",$E21,FIND(T$15,$E21)+LEN(T$15))-(FIND(T$15,$E21)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(U$15,$E21)+LEN(U$15))+1,SEARCH(")",$E21,FIND(U$15,$E21)+LEN(U$15))-(FIND(U$15,$E21)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V21" s="8"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="40">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D22" s="39">
+      <c r="B22" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="19">
+        <v>14.95</v>
+      </c>
+      <c r="D22" s="18">
         <v>1</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="16"/>
+      <c r="E22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="7">
         <f>C22*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.0524834257145963</v>
+        <v>1.7580589066405827</v>
       </c>
       <c r="H22" s="7">
         <f>C22*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.4590805347244864</v>
+        <v>2.4372350831431366</v>
       </c>
       <c r="I22" s="7">
         <f>C22*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="2"/>
-        <v>11.461563960439083</v>
+        <f>SUM(C22,G22:I22)</f>
+        <v>19.145293989783717</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(L$15,$E22)+LEN(L$15))+1,SEARCH(")",$E22,FIND(L$15,$E22)+LEN(L$15))-(FIND(L$15,$E22)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(M$15,$E22)+LEN(M$15))+1,SEARCH(")",$E22,FIND(M$15,$E22)+LEN(M$15))-(FIND(M$15,$E22)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <v>9.5726469948918584</v>
       </c>
       <c r="N22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(N$15,$E22)+LEN(N$15))+1,SEARCH(")",$E22,FIND(N$15,$E22)+LEN(N$15))-(FIND(N$15,$E22)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <v>9.5726469948918584</v>
       </c>
       <c r="O22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(O$15,$E22)+LEN(O$15))+1,SEARCH(")",$E22,FIND(O$15,$E22)+LEN(O$15))-(FIND(O$15,$E22)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(P$15,$E22)+LEN(P$15))+1,SEARCH(")",$E22,FIND(P$15,$E22)+LEN(P$15))-(FIND(P$15,$E22)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="1"/>
-        <v>11.461563960439083</v>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(Q$15,$E22)+LEN(Q$15))+1,SEARCH(")",$E22,FIND(Q$15,$E22)+LEN(Q$15))-(FIND(Q$15,$E22)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <v>0</v>
       </c>
       <c r="R22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(R$15,$E22)+LEN(R$15))+1,SEARCH(")",$E22,FIND(R$15,$E22)+LEN(R$15))-(FIND(R$15,$E22)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(S$15,$E22)+LEN(S$15))+1,SEARCH(")",$E22,FIND(S$15,$E22)+LEN(S$15))-(FIND(S$15,$E22)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(T$15,$E22)+LEN(T$15))+1,SEARCH(")",$E22,FIND(T$15,$E22)+LEN(T$15))-(FIND(T$15,$E22)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(U$15,$E22)+LEN(U$15))+1,SEARCH(")",$E22,FIND(U$15,$E22)+LEN(U$15))-(FIND(U$15,$E22)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V22" s="8"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="19">
+        <v>16.95</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="40">
-        <v>10</v>
-      </c>
-      <c r="D23" s="39">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="7">
         <f>C23*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.1759591348766441</v>
+        <v>1.9932507336159115</v>
       </c>
       <c r="H23" s="7">
         <f>C23*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.6302575806977504</v>
+        <v>2.7632865992826869</v>
       </c>
       <c r="I23" s="7">
         <f>C23*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="2"/>
-        <v>12.806216715574394</v>
+        <f>SUM(C23,G23:I23)</f>
+        <v>21.706537332898598</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="8">
-        <f t="shared" si="1"/>
-        <v>12.806216715574394</v>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(L$15,$E23)+LEN(L$15))+1,SEARCH(")",$E23,FIND(L$15,$E23)+LEN(L$15))-(FIND(L$15,$E23)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <v>21.706537332898598</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(M$15,$E23)+LEN(M$15))+1,SEARCH(")",$E23,FIND(M$15,$E23)+LEN(M$15))-(FIND(M$15,$E23)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(N$15,$E23)+LEN(N$15))+1,SEARCH(")",$E23,FIND(N$15,$E23)+LEN(N$15))-(FIND(N$15,$E23)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(O$15,$E23)+LEN(O$15))+1,SEARCH(")",$E23,FIND(O$15,$E23)+LEN(O$15))-(FIND(O$15,$E23)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(P$15,$E23)+LEN(P$15))+1,SEARCH(")",$E23,FIND(P$15,$E23)+LEN(P$15))-(FIND(P$15,$E23)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(Q$15,$E23)+LEN(Q$15))+1,SEARCH(")",$E23,FIND(Q$15,$E23)+LEN(Q$15))-(FIND(Q$15,$E23)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(R$15,$E23)+LEN(R$15))+1,SEARCH(")",$E23,FIND(R$15,$E23)+LEN(R$15))-(FIND(R$15,$E23)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(S$15,$E23)+LEN(S$15))+1,SEARCH(")",$E23,FIND(S$15,$E23)+LEN(S$15))-(FIND(S$15,$E23)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(T$15,$E23)+LEN(T$15))+1,SEARCH(")",$E23,FIND(T$15,$E23)+LEN(T$15))-(FIND(T$15,$E23)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(U$15,$E23)+LEN(U$15))+1,SEARCH(")",$E23,FIND(U$15,$E23)+LEN(U$15))-(FIND(U$15,$E23)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V23" s="8"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="40">
-        <v>6.22</v>
-      </c>
-      <c r="D24" s="39">
+      <c r="B24" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="19">
+        <v>15.95</v>
+      </c>
+      <c r="D24" s="18">
         <v>1</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="15"/>
       <c r="G24" s="7">
         <f>C24*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>0.73144658189327261</v>
+        <v>1.8756548201282472</v>
       </c>
       <c r="H24" s="7">
         <f>C24*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.0140202151940008</v>
+        <v>2.6002608412129118</v>
       </c>
       <c r="I24" s="7">
         <f>C24*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="2"/>
-        <v>7.9654667970872728</v>
+        <f>SUM(C24,G24:I24)</f>
+        <v>20.425915661341158</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(L$15,$E24)+LEN(L$15))+1,SEARCH(")",$E24,FIND(L$15,$E24)+LEN(L$15))-(FIND(L$15,$E24)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(M$15,$E24)+LEN(M$15))+1,SEARCH(")",$E24,FIND(M$15,$E24)+LEN(M$15))-(FIND(M$15,$E24)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(N$15,$E24)+LEN(N$15))+1,SEARCH(")",$E24,FIND(N$15,$E24)+LEN(N$15))-(FIND(N$15,$E24)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(O$15,$E24)+LEN(O$15))+1,SEARCH(")",$E24,FIND(O$15,$E24)+LEN(O$15))-(FIND(O$15,$E24)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <v>20.425915661341158</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(P$15,$E24)+LEN(P$15))+1,SEARCH(")",$E24,FIND(P$15,$E24)+LEN(P$15))-(FIND(P$15,$E24)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(Q$15,$E24)+LEN(Q$15))+1,SEARCH(")",$E24,FIND(Q$15,$E24)+LEN(Q$15))-(FIND(Q$15,$E24)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(R$15,$E24)+LEN(R$15))+1,SEARCH(")",$E24,FIND(R$15,$E24)+LEN(R$15))-(FIND(R$15,$E24)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(S$15,$E24)+LEN(S$15))+1,SEARCH(")",$E24,FIND(S$15,$E24)+LEN(S$15))-(FIND(S$15,$E24)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(T$15,$E24)+LEN(T$15))+1,SEARCH(")",$E24,FIND(T$15,$E24)+LEN(T$15))-(FIND(T$15,$E24)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="1"/>
+        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(U$15,$E24)+LEN(U$15))+1,SEARCH(")",$E24,FIND(U$15,$E24)+LEN(U$15))-(FIND(U$15,$E24)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
         <v>0</v>
       </c>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="19">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="7">
+        <f>C25*VLOOKUP("Tax %",B:C,2,0)</f>
+        <v>1.0524834257145963</v>
+      </c>
+      <c r="H25" s="7">
+        <f>C25*VLOOKUP("Tip %",B:C,2,0)</f>
+        <v>1.4590805347244864</v>
+      </c>
+      <c r="I25" s="7">
+        <f>C25*VLOOKUP("Fee %",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUM(C25,G25:I25)</f>
+        <v>11.461563960439083</v>
+      </c>
       <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="L25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(L$15,$E25)+LEN(L$15))+1,SEARCH(")",$E25,FIND(L$15,$E25)+LEN(L$15))-(FIND(L$15,$E25)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(M$15,$E25)+LEN(M$15))+1,SEARCH(")",$E25,FIND(M$15,$E25)+LEN(M$15))-(FIND(M$15,$E25)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(N$15,$E25)+LEN(N$15))+1,SEARCH(")",$E25,FIND(N$15,$E25)+LEN(N$15))-(FIND(N$15,$E25)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(O$15,$E25)+LEN(O$15))+1,SEARCH(")",$E25,FIND(O$15,$E25)+LEN(O$15))-(FIND(O$15,$E25)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>11.461563960439083</v>
+      </c>
+      <c r="P25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(P$15,$E25)+LEN(P$15))+1,SEARCH(")",$E25,FIND(P$15,$E25)+LEN(P$15))-(FIND(P$15,$E25)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(Q$15,$E25)+LEN(Q$15))+1,SEARCH(")",$E25,FIND(Q$15,$E25)+LEN(Q$15))-(FIND(Q$15,$E25)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(R$15,$E25)+LEN(R$15))+1,SEARCH(")",$E25,FIND(R$15,$E25)+LEN(R$15))-(FIND(R$15,$E25)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(S$15,$E25)+LEN(S$15))+1,SEARCH(")",$E25,FIND(S$15,$E25)+LEN(S$15))-(FIND(S$15,$E25)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(T$15,$E25)+LEN(T$15))+1,SEARCH(")",$E25,FIND(T$15,$E25)+LEN(T$15))-(FIND(T$15,$E25)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(U$15,$E25)+LEN(U$15))+1,SEARCH(")",$E25,FIND(U$15,$E25)+LEN(U$15))-(FIND(U$15,$E25)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="8"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="48">
-        <f>SUM(C12:C25)</f>
-        <v>184.01999999999998</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="43" t="s">
-        <v>24</v>
-      </c>
+      <c r="B26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="19">
+        <v>10</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7">
+        <f>C26*VLOOKUP("Tax %",B:C,2,0)</f>
+        <v>1.1759591348766441</v>
+      </c>
+      <c r="H26" s="7">
+        <f>C26*VLOOKUP("Tip %",B:C,2,0)</f>
+        <v>1.6302575806977504</v>
+      </c>
+      <c r="I26" s="7">
+        <f>C26*VLOOKUP("Fee %",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <f>SUM(C26,G26:I26)</f>
+        <v>12.806216715574394</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(L$15,$E26)+LEN(L$15))+1,SEARCH(")",$E26,FIND(L$15,$E26)+LEN(L$15))-(FIND(L$15,$E26)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(M$15,$E26)+LEN(M$15))+1,SEARCH(")",$E26,FIND(M$15,$E26)+LEN(M$15))-(FIND(M$15,$E26)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(N$15,$E26)+LEN(N$15))+1,SEARCH(")",$E26,FIND(N$15,$E26)+LEN(N$15))-(FIND(N$15,$E26)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(O$15,$E26)+LEN(O$15))+1,SEARCH(")",$E26,FIND(O$15,$E26)+LEN(O$15))-(FIND(O$15,$E26)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(P$15,$E26)+LEN(P$15))+1,SEARCH(")",$E26,FIND(P$15,$E26)+LEN(P$15))-(FIND(P$15,$E26)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>12.806216715574394</v>
+      </c>
+      <c r="Q26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(Q$15,$E26)+LEN(Q$15))+1,SEARCH(")",$E26,FIND(Q$15,$E26)+LEN(Q$15))-(FIND(Q$15,$E26)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(R$15,$E26)+LEN(R$15))+1,SEARCH(")",$E26,FIND(R$15,$E26)+LEN(R$15))-(FIND(R$15,$E26)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(S$15,$E26)+LEN(S$15))+1,SEARCH(")",$E26,FIND(S$15,$E26)+LEN(S$15))-(FIND(S$15,$E26)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(T$15,$E26)+LEN(T$15))+1,SEARCH(")",$E26,FIND(T$15,$E26)+LEN(T$15))-(FIND(T$15,$E26)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="8">
+        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(U$15,$E26)+LEN(U$15))+1,SEARCH(")",$E26,FIND(U$15,$E26)+LEN(U$15))-(FIND(U$15,$E26)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="8"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="42">
-        <v>21.64</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="30"/>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="42">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="30"/>
+      <c r="B27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="19">
+        <v>6.22</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="7">
+        <f>C27*VLOOKUP("Tax %",B:C,2,0)</f>
+        <v>0.73144658189327261</v>
+      </c>
+      <c r="H27" s="7">
+        <f>C27*VLOOKUP("Tip %",B:C,2,0)</f>
+        <v>1.0140202151940008</v>
+      </c>
+      <c r="I27" s="7">
+        <f>C27*VLOOKUP("Fee %",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <f>SUM(C27,G27:I27)</f>
+        <v>7.9654667970872728</v>
+      </c>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(L$15,$E27)+LEN(L$15))+1,SEARCH(")",$E27,FIND(L$15,$E27)+LEN(L$15))-(FIND(L$15,$E27)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>1.5930933594174546</v>
+      </c>
+      <c r="M27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(M$15,$E27)+LEN(M$15))+1,SEARCH(")",$E27,FIND(M$15,$E27)+LEN(M$15))-(FIND(M$15,$E27)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>1.5930933594174546</v>
+      </c>
+      <c r="N27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(N$15,$E27)+LEN(N$15))+1,SEARCH(")",$E27,FIND(N$15,$E27)+LEN(N$15))-(FIND(N$15,$E27)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>1.5930933594174546</v>
+      </c>
+      <c r="O27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(O$15,$E27)+LEN(O$15))+1,SEARCH(")",$E27,FIND(O$15,$E27)+LEN(O$15))-(FIND(O$15,$E27)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>1.5930933594174546</v>
+      </c>
+      <c r="P27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(P$15,$E27)+LEN(P$15))+1,SEARCH(")",$E27,FIND(P$15,$E27)+LEN(P$15))-(FIND(P$15,$E27)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>1.5930933594174546</v>
+      </c>
+      <c r="Q27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(Q$15,$E27)+LEN(Q$15))+1,SEARCH(")",$E27,FIND(Q$15,$E27)+LEN(Q$15))-(FIND(Q$15,$E27)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(R$15,$E27)+LEN(R$15))+1,SEARCH(")",$E27,FIND(R$15,$E27)+LEN(R$15))-(FIND(R$15,$E27)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(S$15,$E27)+LEN(S$15))+1,SEARCH(")",$E27,FIND(S$15,$E27)+LEN(S$15))-(FIND(S$15,$E27)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(T$15,$E27)+LEN(T$15))+1,SEARCH(")",$E27,FIND(T$15,$E27)+LEN(T$15))-(FIND(T$15,$E27)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(U$15,$E27)+LEN(U$15))+1,SEARCH(")",$E27,FIND(U$15,$E27)+LEN(U$15))-(FIND(U$15,$E27)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="C29" s="2">
+        <f>SUM(C15:C28)</f>
+        <v>184.01999999999998</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="37">
+        <v>21.64</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="37">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="37">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="47">
-        <f>SUM(C26:C29)</f>
+      <c r="C33" s="41">
+        <f>SUM(C29:C32)</f>
         <v>235.65999999999997</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="30"/>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="2:22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.35">
-      <c r="B35" s="3" t="s">
+      <c r="D33" s="1"/>
+      <c r="E33" s="29"/>
+      <c r="G33" s="16"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="38"/>
+    </row>
+    <row r="37" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.35">
+      <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="30"/>
-      <c r="G35" s="9" t="s">
+      <c r="C38" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="44" t="str" cm="1">
-        <f t="array" ref="B36:B41">_xlfn.UNIQUE(_xlfn.TEXTSPLIT(
+      <c r="D38" s="1"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="39" t="str" cm="1">
+        <f t="array" ref="B39:B43">_xlfn.UNIQUE(_xlfn.TEXTSPLIT(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -2195,7 +2103,7 @@
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
-SUBSTITUTE(_xlfn.TEXTJOIN(";",TRUE,E13:E25)," ",""),
+SUBSTITUTE(_xlfn.TEXTJOIN(";",TRUE,E16:E28)," ",""),
 "(",""),
 ")",""),
 "1",""),
@@ -2208,299 +2116,239 @@
 "8",""),
 "9",""),
 ,";",TRUE))</f>
+        <v>joe</v>
+      </c>
+      <c r="C39" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B39,$L$15:$AE$15,0)))</f>
+        <v>52.753929138137153</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="29"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="39" t="str">
+        <v>cole</v>
+      </c>
+      <c r="C40" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B40,$L$15:$AE$15,0)))</f>
+        <v>81.599932289968478</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="29"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="39" t="str">
+        <v>sophia</v>
+      </c>
+      <c r="C41" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B41,$L$15:$AE$15,0)))</f>
+        <v>38.058795457015535</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="29"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42" s="39" t="str">
+        <v>emma</v>
+      </c>
+      <c r="C42" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B42,$L$15:$AE$15,0)))</f>
+        <v>48.848033039886971</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="29"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43" s="39" t="str">
         <v>maggie</v>
       </c>
-      <c r="C36" s="45">
-        <f t="shared" ref="C36:C51" si="3">SUM(INDEX($L$12:$AE$120,,MATCH($B36,$L$12:$AE$12,0)))</f>
-        <v>23.051190088033909</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="30"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="17">
-        <f>C36-G36</f>
-        <v>23.051190088033909</v>
-      </c>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="46" t="str">
-        <v>joe</v>
-      </c>
-      <c r="C37" s="45">
-        <f t="shared" si="3"/>
-        <v>56.283322464949464</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="30"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="17">
-        <f>C37-G37</f>
-        <v>56.283322464949464</v>
-      </c>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="46" t="str">
-        <v>sophia</v>
-      </c>
-      <c r="C38" s="45">
-        <f t="shared" si="3"/>
-        <v>36.465702097598083</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="30"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="17">
-        <f>C38-G38</f>
-        <v>36.465702097598083</v>
-      </c>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="46" t="str">
-        <v>cole</v>
-      </c>
-      <c r="C39" s="45">
-        <f t="shared" si="3"/>
-        <v>50.552540484729917</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="30"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="17">
-        <f>C39-G39</f>
-        <v>50.552540484729917</v>
-      </c>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="46" t="str">
-        <v>TBD</v>
-      </c>
-      <c r="C40" s="45">
-        <f t="shared" si="3"/>
-        <v>14.086838387131833</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="30"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="17">
-        <f>C40-G40</f>
-        <v>14.086838387131833</v>
-      </c>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="46" t="str">
-        <v>emma</v>
-      </c>
-      <c r="C41" s="45">
-        <f t="shared" si="3"/>
-        <v>47.254939680469519</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="30"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="17">
-        <f t="shared" ref="H41:H51" si="4">C41-G41</f>
-        <v>47.254939680469519</v>
-      </c>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="46"/>
-      <c r="C42" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="30"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="46"/>
-      <c r="C43" s="45">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C43" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B43,$L$15:$AE$15,0)))</f>
+        <v>14.399310074991849</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="30"/>
+      <c r="E43" s="29"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="17">
-        <f t="shared" ref="H43" si="5">C43-G43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="46"/>
-      <c r="C44" s="45">
-        <f t="shared" si="3"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44" s="39"/>
+      <c r="C44" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B44,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="30"/>
+      <c r="E44" s="29"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="46"/>
-      <c r="C45" s="45">
-        <f t="shared" si="3"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45" s="39"/>
+      <c r="C45" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B45,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="30"/>
+      <c r="E45" s="29"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I45" s="17"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="46"/>
-      <c r="C46" s="45">
-        <f t="shared" si="3"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46" s="39"/>
+      <c r="C46" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B46,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="30"/>
+      <c r="E46" s="29"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="17"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="46"/>
-      <c r="C47" s="45">
-        <f t="shared" si="3"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47" s="39"/>
+      <c r="C47" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B47,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="30"/>
+      <c r="E47" s="29"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="17"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="46"/>
-      <c r="C48" s="45">
-        <f t="shared" si="3"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B48" s="39"/>
+      <c r="C48" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B48,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="30"/>
+      <c r="E48" s="29"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="17"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="46"/>
-      <c r="C49" s="45">
-        <f t="shared" si="3"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B49,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="30"/>
+      <c r="E49" s="29"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="17"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="46"/>
-      <c r="C50" s="45">
-        <f t="shared" si="3"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B50,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="30"/>
+      <c r="E50" s="29"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="17"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="46"/>
-      <c r="C51" s="45">
-        <f t="shared" si="3"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B51,$L$15:$AE$15,0)))</f>
         <v>0</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="30"/>
+      <c r="E51" s="29"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="17"/>
-    </row>
-    <row r="52" spans="2:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
-      <c r="C52" s="2"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="39"/>
+      <c r="C52" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B52,$L$15:$AE$15,0)))</f>
+        <v>0</v>
+      </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="30"/>
+      <c r="E52" s="29"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-    </row>
-    <row r="53" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E53" s="32"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="39"/>
+      <c r="C53" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B53,$L$15:$AE$15,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="29"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D54" s="22"/>
-      <c r="E54" s="33"/>
-      <c r="G54" s="23">
-        <f>SUM(G35:G51)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="23">
-        <f>SUM(H35:H51)</f>
-        <v>227.69453320291274</v>
-      </c>
-      <c r="I54" s="23"/>
-      <c r="J54" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="10"/>
-      <c r="C62" s="14"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="11"/>
-      <c r="C64" s="15"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40">
+        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B54,$L$15:$AE$15,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="29"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+    </row>
+    <row r="55" spans="2:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="29"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D57" s="21"/>
+      <c r="E57" s="32"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="11"/>
-      <c r="C65" s="15"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="13"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="10"/>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="10"/>
+      <c r="C68" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dist/files/TEMPLATE_ReceiptSplitter_ByMoe_v5.xlsx
+++ b/dist/files/TEMPLATE_ReceiptSplitter_ByMoe_v5.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/583147fcbfea20da/Receipt Splitter project/src/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnc-my.sharepoint.com/personal/joseph_renner_pnc_com/Documents/2)Personal/Receipts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{CA90C786-6DD8-4C00-A734-969D2C4B458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B05BD98F-A28F-43DF-AAB4-780C7E0C8C16}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CA90C786-6DD8-4C00-A734-969D2C4B458E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6744F81-763B-478A-AB06-E453469B57CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{612115ED-04A2-4592-8706-3196440F10EE}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="3" r:id="rId1"/>
+    <sheet name="Guidance" sheetId="3" r:id="rId1"/>
     <sheet name="expenses" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Item</t>
   </si>
@@ -113,12 +113,18 @@
     <t>Tip $</t>
   </si>
   <si>
+    <t>Tax Allcoation</t>
+  </si>
+  <si>
     <t>Tip Allocation</t>
   </si>
   <si>
     <t>Allocated Cost</t>
   </si>
   <si>
+    <t>Recipt Total</t>
+  </si>
+  <si>
     <t>Match?</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
     <t>x</t>
   </si>
   <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -147,6 +159,9 @@
   </si>
   <si>
     <t>– – – – – – – – – – – – – – – – – – – – – – – – – – – – – –</t>
+  </si>
+  <si>
+    <t>↑ to add items, highlight this row and insert a row</t>
   </si>
   <si>
     <t>Input Item, Cost, # (count of items) and people</t>
@@ -255,6 +270,20 @@
     <t>espresso martini</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">cole; sophia; joe; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TBD</t>
+    </r>
+  </si>
+  <si>
     <t>cole</t>
   </si>
   <si>
@@ -267,49 +296,13 @@
     <t>Venmo: @jrenn3</t>
   </si>
   <si>
+    <t>← change Venmo</t>
+  </si>
+  <si>
     <t>Cell # last 4: 9965</t>
   </si>
   <si>
-    <t>cole(2); sophia(1); joe(1)</t>
-  </si>
-  <si>
-    <t>joe;cole</t>
-  </si>
-  <si>
-    <t>maggie;joe;cole;sophia;emma</t>
-  </si>
-  <si>
-    <t>1) save as and rename the file something recognizable</t>
-  </si>
-  <si>
-    <t>2) ↓ change the name here to something recognizable</t>
-  </si>
-  <si>
-    <t>← 3b) use parenetical and numbers to allocate a specific number of an item</t>
-  </si>
-  <si>
-    <t>Receipt Total</t>
-  </si>
-  <si>
-    <t>Tax Allocation</t>
-  </si>
-  <si>
-    <t>4) ↑ to add items, highlight the row above this cell and insert a row</t>
-  </si>
-  <si>
-    <t>5) ↑ drag down these formulas if needed</t>
-  </si>
-  <si>
-    <t>← 3a) add items and names. Delimit names with a semicolon</t>
-  </si>
-  <si>
-    <t>← 6) don’t forget tax, tips and fees</t>
-  </si>
-  <si>
-    <t>← 7) change Venmo and Cell last 4</t>
-  </si>
-  <si>
-    <t>← 8) screenshot from the blue header down to the names at the bottom to share</t>
+    <t>← change Cell last 4</t>
   </si>
 </sst>
 </file>
@@ -321,7 +314,7 @@
     <numFmt numFmtId="165" formatCode="_(#,##0.00_);\(#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;\ #,##0.00_);&quot;$&quot;\ \(#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -400,6 +393,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -433,32 +432,85 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -466,59 +518,26 @@
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +560,103 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3962175" cy="254557"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FC1D05-9EE2-4013-A2D8-8BA696E316D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2486025" y="161925"/>
+          <a:ext cx="3962175" cy="254557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SAVE AS AND RENAME.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> THEN DELETE THIS TEXT BOX</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -582,7 +694,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -688,7 +800,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -830,7 +942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -852,43 +964,43 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -899,1199 +1011,1179 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9F5F-FFAE-4545-9A94-F434F54B2D39}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:AA68"/>
+  <dimension ref="B2:AA65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="15" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="12" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="30" style="31" customWidth="1"/>
-    <col min="6" max="6" width="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="20" width="7.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="30" style="34" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="20" width="7.5703125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B2" s="38" t="s">
-        <v>52</v>
-      </c>
-    </row>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12">
+        <f>SUM(C35:C51)</f>
+        <v>227.69453320291274</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11">
-        <f>SUM(C38:C54)</f>
-        <v>235.66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="11">
-        <f>VLOOKUP("Total",B15:C121,2,0)</f>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="12">
+        <f>VLOOKUP("Total",B12:C118,2,0)</f>
         <v>235.65999999999997</v>
       </c>
     </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="b">
+        <f>C4=C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="b">
-        <f>C6=C4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C7" s="15">
         <f>VLOOKUP("Tax $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
         <v>0.11759591348766441</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C8" s="15">
         <f>VLOOKUP("Tip $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
         <v>0.16302575806977504</v>
       </c>
     </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="15">
+        <f>VLOOKUP("Fee $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+    </row>
+    <row r="12" spans="2:27" s="27" customFormat="1" ht="15" x14ac:dyDescent="0.35">
+      <c r="B12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14">
-        <f>VLOOKUP("Fee $",B:C,2,0)/VLOOKUP("Subtotal",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B12" s="10"/>
-      <c r="C12" s="14"/>
+      <c r="E12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="27" t="str" cm="1">
+        <f t="array" ref="L12:AA12">TRANSPOSE(B36:B51)</f>
+        <v>maggie</v>
+      </c>
+      <c r="M12" s="27" t="str">
+        <v>joe</v>
+      </c>
+      <c r="N12" s="27" t="str">
+        <v>sophia</v>
+      </c>
+      <c r="O12" s="27" t="str">
+        <v>cole</v>
+      </c>
+      <c r="P12" s="27" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="Q12" s="27" t="str">
+        <v>emma</v>
+      </c>
+      <c r="R12" s="27">
+        <v>0</v>
+      </c>
+      <c r="S12" s="27">
+        <v>0</v>
+      </c>
+      <c r="T12" s="27">
+        <v>0</v>
+      </c>
+      <c r="U12" s="27">
+        <v>0</v>
+      </c>
+      <c r="V12" s="27">
+        <v>0</v>
+      </c>
+      <c r="W12" s="27">
+        <v>0</v>
+      </c>
+      <c r="X12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="27">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
-        <v>53</v>
-      </c>
+      <c r="B13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="40">
+        <v>8</v>
+      </c>
+      <c r="D13" s="39">
+        <v>1</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="7">
+        <f>C13*VLOOKUP("Tax %",B:C,2,0)</f>
+        <v>0.94076730790131524</v>
+      </c>
+      <c r="H13" s="7">
+        <f>C13*VLOOKUP("Tip %",B:C,2,0)</f>
+        <v>1.3042060645582003</v>
+      </c>
+      <c r="I13" s="7">
+        <f>C13*VLOOKUP("Fee %",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13" si="0">SUM(C13,G13:I13)</f>
+        <v>10.244973372459516</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13:U24" si="1">IF($E13="All",$J13/COUNTA($B$36:$B$51),IFERROR($J13/$D13*MID($E13,(FIND(L$12,$E13)+LEN(L$12))+1,SEARCH(")",$E13,FIND(L$12,$E13)+LEN(L$12))-(FIND(L$12,$E13)+LEN(L$12))-1),IF(ISNUMBER(SEARCH(L$12,$E13)),$J13/(LEN($E13)-LEN(SUBSTITUTE($E13,";",""))+1),0)))</f>
+        <v>10.244973372459516</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="8"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B14" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="26" t="str" cm="1">
-        <f t="array" ref="L15:AA15">TRANSPOSE(B39:B54)</f>
-        <v>joe</v>
-      </c>
-      <c r="M15" s="26" t="str">
-        <v>cole</v>
-      </c>
-      <c r="N15" s="26" t="str">
-        <v>sophia</v>
-      </c>
-      <c r="O15" s="26" t="str">
-        <v>emma</v>
-      </c>
-      <c r="P15" s="26" t="str">
-        <v>maggie</v>
-      </c>
-      <c r="Q15" s="26">
-        <v>0</v>
-      </c>
-      <c r="R15" s="26">
-        <v>0</v>
-      </c>
-      <c r="S15" s="26">
-        <v>0</v>
-      </c>
-      <c r="T15" s="26">
-        <v>0</v>
-      </c>
-      <c r="U15" s="26">
-        <v>0</v>
-      </c>
-      <c r="V15" s="26">
-        <v>0</v>
-      </c>
-      <c r="W15" s="26">
-        <v>0</v>
-      </c>
-      <c r="X15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="26">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="26">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>0</v>
-      </c>
+      <c r="B14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="40">
+        <v>16</v>
+      </c>
+      <c r="D14" s="39">
+        <v>2</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="7">
+        <f>C14*VLOOKUP("Tax %",B:C,2,0)</f>
+        <v>1.8815346158026305</v>
+      </c>
+      <c r="H14" s="7">
+        <f>C14*VLOOKUP("Tip %",B:C,2,0)</f>
+        <v>2.6084121291164006</v>
+      </c>
+      <c r="I14" s="7">
+        <f>C14*VLOOKUP("Fee %",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" ref="J14:J24" si="2">SUM(C14,G14:I14)</f>
+        <v>20.489946744919031</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="1"/>
+        <v>20.489946744919031</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="40">
+        <v>10</v>
+      </c>
+      <c r="D15" s="39">
+        <v>1</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="7">
+        <f>C15*VLOOKUP("Tax %",B:C,2,0)</f>
+        <v>1.1759591348766441</v>
+      </c>
+      <c r="H15" s="7">
+        <f>C15*VLOOKUP("Tip %",B:C,2,0)</f>
+        <v>1.6302575806977504</v>
+      </c>
+      <c r="I15" s="7">
+        <f>C15*VLOOKUP("Fee %",B:C,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <f t="shared" si="2"/>
+        <v>12.806216715574394</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="1"/>
+        <v>12.806216715574394</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="8"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="19">
-        <v>8</v>
-      </c>
-      <c r="D16" s="18">
-        <v>2</v>
-      </c>
-      <c r="E16" s="28" t="s">
+      <c r="B16" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="40">
+        <v>21</v>
+      </c>
+      <c r="D16" s="39">
+        <v>3</v>
+      </c>
+      <c r="E16" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>59</v>
-      </c>
+      <c r="F16" s="16"/>
       <c r="G16" s="7">
         <f>C16*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>0.94076730790131524</v>
+        <v>2.4695141832409524</v>
       </c>
       <c r="H16" s="7">
         <f>C16*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.3042060645582003</v>
+        <v>3.4235409194652759</v>
       </c>
       <c r="I16" s="7">
         <f>C16*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J16" s="7">
-        <f>SUM(C16,G16:I16)</f>
-        <v>10.244973372459516</v>
+        <f t="shared" si="2"/>
+        <v>26.893055102706228</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(L$15,$E16)+LEN(L$15))+1,SEARCH(")",$E16,FIND(L$15,$E16)+LEN(L$15))-(FIND(L$15,$E16)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
-        <v>5.1224866862297578</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(M$15,$E16)+LEN(M$15))+1,SEARCH(")",$E16,FIND(M$15,$E16)+LEN(M$15))-(FIND(M$15,$E16)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
-        <v>5.1224866862297578</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(N$15,$E16)+LEN(N$15))+1,SEARCH(")",$E16,FIND(N$15,$E16)+LEN(N$15))-(FIND(N$15,$E16)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(O$15,$E16)+LEN(O$15))+1,SEARCH(")",$E16,FIND(O$15,$E16)+LEN(O$15))-(FIND(O$15,$E16)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>26.893055102706228</v>
       </c>
       <c r="P16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(P$15,$E16)+LEN(P$15))+1,SEARCH(")",$E16,FIND(P$15,$E16)+LEN(P$15))-(FIND(P$15,$E16)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(Q$15,$E16)+LEN(Q$15))+1,SEARCH(")",$E16,FIND(Q$15,$E16)+LEN(Q$15))-(FIND(Q$15,$E16)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(R$15,$E16)+LEN(R$15))+1,SEARCH(")",$E16,FIND(R$15,$E16)+LEN(R$15))-(FIND(R$15,$E16)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(S$15,$E16)+LEN(S$15))+1,SEARCH(")",$E16,FIND(S$15,$E16)+LEN(S$15))-(FIND(S$15,$E16)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(T$15,$E16)+LEN(T$15))+1,SEARCH(")",$E16,FIND(T$15,$E16)+LEN(T$15))-(FIND(T$15,$E16)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U16" s="8">
-        <f>IF($E16="All",$J16/COUNTA($B$39:$B$54),IFERROR($J16/$D16*MID($E16,(FIND(U$15,$E16)+LEN(U$15))+1,SEARCH(")",$E16,FIND(U$15,$E16)+LEN(U$15))-(FIND(U$15,$E16)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E16)),$J16/(LEN($E16)-LEN(SUBSTITUTE($E16,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V16" s="8"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="19">
-        <v>16</v>
-      </c>
-      <c r="D17" s="18">
-        <v>2</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="38"/>
+      <c r="B17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="40">
+        <v>44</v>
+      </c>
+      <c r="D17" s="39">
+        <v>4</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="16"/>
       <c r="G17" s="7">
         <f>C17*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.8815346158026305</v>
+        <v>5.1742201934572343</v>
       </c>
       <c r="H17" s="7">
         <f>C17*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.6084121291164006</v>
+        <v>7.1731333550701013</v>
       </c>
       <c r="I17" s="7">
         <f>C17*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f>SUM(C17,G17:I17)</f>
-        <v>20.489946744919031</v>
+        <f t="shared" si="2"/>
+        <v>56.34735354852733</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(L$15,$E17)+LEN(L$15))+1,SEARCH(")",$E17,FIND(L$15,$E17)+LEN(L$15))-(FIND(L$15,$E17)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
-        <v>10.244973372459516</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(M$15,$E17)+LEN(M$15))+1,SEARCH(")",$E17,FIND(M$15,$E17)+LEN(M$15))-(FIND(M$15,$E17)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
-        <v>10.244973372459516</v>
+        <f t="shared" si="1"/>
+        <v>14.086838387131833</v>
       </c>
       <c r="N17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(N$15,$E17)+LEN(N$15))+1,SEARCH(")",$E17,FIND(N$15,$E17)+LEN(N$15))-(FIND(N$15,$E17)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.086838387131833</v>
       </c>
       <c r="O17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(O$15,$E17)+LEN(O$15))+1,SEARCH(")",$E17,FIND(O$15,$E17)+LEN(O$15))-(FIND(O$15,$E17)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.086838387131833</v>
       </c>
       <c r="P17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(P$15,$E17)+LEN(P$15))+1,SEARCH(")",$E17,FIND(P$15,$E17)+LEN(P$15))-(FIND(P$15,$E17)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>14.086838387131833</v>
       </c>
       <c r="Q17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(Q$15,$E17)+LEN(Q$15))+1,SEARCH(")",$E17,FIND(Q$15,$E17)+LEN(Q$15))-(FIND(Q$15,$E17)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(R$15,$E17)+LEN(R$15))+1,SEARCH(")",$E17,FIND(R$15,$E17)+LEN(R$15))-(FIND(R$15,$E17)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(S$15,$E17)+LEN(S$15))+1,SEARCH(")",$E17,FIND(S$15,$E17)+LEN(S$15))-(FIND(S$15,$E17)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(T$15,$E17)+LEN(T$15))+1,SEARCH(")",$E17,FIND(T$15,$E17)+LEN(T$15))-(FIND(T$15,$E17)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U17" s="8">
-        <f>IF($E17="All",$J17/COUNTA($B$39:$B$54),IFERROR($J17/$D17*MID($E17,(FIND(U$15,$E17)+LEN(U$15))+1,SEARCH(")",$E17,FIND(U$15,$E17)+LEN(U$15))-(FIND(U$15,$E17)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E17)),$J17/(LEN($E17)-LEN(SUBSTITUTE($E17,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V17" s="8"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="19">
-        <v>10</v>
-      </c>
-      <c r="D18" s="18">
+      <c r="B18" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="40">
+        <v>12</v>
+      </c>
+      <c r="D18" s="39">
         <v>1</v>
       </c>
-      <c r="E18" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="15"/>
+      <c r="E18" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16"/>
       <c r="G18" s="7">
         <f>C18*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.1759591348766441</v>
+        <v>1.4111509618519729</v>
       </c>
       <c r="H18" s="7">
         <f>C18*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.6302575806977504</v>
+        <v>1.9563090968373005</v>
       </c>
       <c r="I18" s="7">
         <f>C18*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J18" s="7">
-        <f>SUM(C18,G18:I18)</f>
-        <v>12.806216715574394</v>
+        <f t="shared" si="2"/>
+        <v>15.367460058689273</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(L$15,$E18)+LEN(L$15))+1,SEARCH(")",$E18,FIND(L$15,$E18)+LEN(L$15))-(FIND(L$15,$E18)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(M$15,$E18)+LEN(M$15))+1,SEARCH(")",$E18,FIND(M$15,$E18)+LEN(M$15))-(FIND(M$15,$E18)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(N$15,$E18)+LEN(N$15))+1,SEARCH(")",$E18,FIND(N$15,$E18)+LEN(N$15))-(FIND(N$15,$E18)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
-        <v>12.806216715574394</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(O$15,$E18)+LEN(O$15))+1,SEARCH(")",$E18,FIND(O$15,$E18)+LEN(O$15))-(FIND(O$15,$E18)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(P$15,$E18)+LEN(P$15))+1,SEARCH(")",$E18,FIND(P$15,$E18)+LEN(P$15))-(FIND(P$15,$E18)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(Q$15,$E18)+LEN(Q$15))+1,SEARCH(")",$E18,FIND(Q$15,$E18)+LEN(Q$15))-(FIND(Q$15,$E18)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>15.367460058689273</v>
       </c>
       <c r="R18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(R$15,$E18)+LEN(R$15))+1,SEARCH(")",$E18,FIND(R$15,$E18)+LEN(R$15))-(FIND(R$15,$E18)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(S$15,$E18)+LEN(S$15))+1,SEARCH(")",$E18,FIND(S$15,$E18)+LEN(S$15))-(FIND(S$15,$E18)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(T$15,$E18)+LEN(T$15))+1,SEARCH(")",$E18,FIND(T$15,$E18)+LEN(T$15))-(FIND(T$15,$E18)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U18" s="8">
-        <f>IF($E18="All",$J18/COUNTA($B$39:$B$54),IFERROR($J18/$D18*MID($E18,(FIND(U$15,$E18)+LEN(U$15))+1,SEARCH(")",$E18,FIND(U$15,$E18)+LEN(U$15))-(FIND(U$15,$E18)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E18)),$J18/(LEN($E18)-LEN(SUBSTITUTE($E18,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V18" s="8"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="19">
-        <v>21</v>
-      </c>
-      <c r="D19" s="18">
-        <v>3</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="B19" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="40">
+        <v>14.95</v>
+      </c>
+      <c r="D19" s="39">
+        <v>1</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="16"/>
       <c r="G19" s="7">
         <f>C19*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>2.4695141832409524</v>
+        <v>1.7580589066405827</v>
       </c>
       <c r="H19" s="7">
         <f>C19*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>3.4235409194652759</v>
+        <v>2.4372350831431366</v>
       </c>
       <c r="I19" s="7">
         <f>C19*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J19" s="7">
-        <f>SUM(C19,G19:I19)</f>
-        <v>26.893055102706228</v>
+        <f t="shared" si="2"/>
+        <v>19.145293989783717</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(L$15,$E19)+LEN(L$15))+1,SEARCH(")",$E19,FIND(L$15,$E19)+LEN(L$15))-(FIND(L$15,$E19)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(M$15,$E19)+LEN(M$15))+1,SEARCH(")",$E19,FIND(M$15,$E19)+LEN(M$15))-(FIND(M$15,$E19)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
-        <v>26.893055102706228</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(N$15,$E19)+LEN(N$15))+1,SEARCH(")",$E19,FIND(N$15,$E19)+LEN(N$15))-(FIND(N$15,$E19)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.5726469948918584</v>
       </c>
       <c r="O19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(O$15,$E19)+LEN(O$15))+1,SEARCH(")",$E19,FIND(O$15,$E19)+LEN(O$15))-(FIND(O$15,$E19)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>9.5726469948918584</v>
       </c>
       <c r="P19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(P$15,$E19)+LEN(P$15))+1,SEARCH(")",$E19,FIND(P$15,$E19)+LEN(P$15))-(FIND(P$15,$E19)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(Q$15,$E19)+LEN(Q$15))+1,SEARCH(")",$E19,FIND(Q$15,$E19)+LEN(Q$15))-(FIND(Q$15,$E19)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(R$15,$E19)+LEN(R$15))+1,SEARCH(")",$E19,FIND(R$15,$E19)+LEN(R$15))-(FIND(R$15,$E19)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(S$15,$E19)+LEN(S$15))+1,SEARCH(")",$E19,FIND(S$15,$E19)+LEN(S$15))-(FIND(S$15,$E19)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(T$15,$E19)+LEN(T$15))+1,SEARCH(")",$E19,FIND(T$15,$E19)+LEN(T$15))-(FIND(T$15,$E19)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U19" s="8">
-        <f>IF($E19="All",$J19/COUNTA($B$39:$B$54),IFERROR($J19/$D19*MID($E19,(FIND(U$15,$E19)+LEN(U$15))+1,SEARCH(")",$E19,FIND(U$15,$E19)+LEN(U$15))-(FIND(U$15,$E19)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E19)),$J19/(LEN($E19)-LEN(SUBSTITUTE($E19,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V19" s="8"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="19">
-        <v>44</v>
-      </c>
-      <c r="D20" s="18">
-        <v>4</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>54</v>
-      </c>
+      <c r="B20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="40">
+        <v>16.95</v>
+      </c>
+      <c r="D20" s="39">
+        <v>1</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16"/>
       <c r="G20" s="7">
         <f>C20*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>5.1742201934572343</v>
+        <v>1.9932507336159115</v>
       </c>
       <c r="H20" s="7">
         <f>C20*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>7.1731333550701013</v>
+        <v>2.7632865992826869</v>
       </c>
       <c r="I20" s="7">
         <f>C20*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J20" s="7">
-        <f>SUM(C20,G20:I20)</f>
-        <v>56.34735354852733</v>
+        <f t="shared" si="2"/>
+        <v>21.706537332898598</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(L$15,$E20)+LEN(L$15))+1,SEARCH(")",$E20,FIND(L$15,$E20)+LEN(L$15))-(FIND(L$15,$E20)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
-        <v>14.086838387131833</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="M20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(M$15,$E20)+LEN(M$15))+1,SEARCH(")",$E20,FIND(M$15,$E20)+LEN(M$15))-(FIND(M$15,$E20)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
-        <v>28.173676774263665</v>
+        <f t="shared" si="1"/>
+        <v>21.706537332898598</v>
       </c>
       <c r="N20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(N$15,$E20)+LEN(N$15))+1,SEARCH(")",$E20,FIND(N$15,$E20)+LEN(N$15))-(FIND(N$15,$E20)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
-        <v>14.086838387131833</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(O$15,$E20)+LEN(O$15))+1,SEARCH(")",$E20,FIND(O$15,$E20)+LEN(O$15))-(FIND(O$15,$E20)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(P$15,$E20)+LEN(P$15))+1,SEARCH(")",$E20,FIND(P$15,$E20)+LEN(P$15))-(FIND(P$15,$E20)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(Q$15,$E20)+LEN(Q$15))+1,SEARCH(")",$E20,FIND(Q$15,$E20)+LEN(Q$15))-(FIND(Q$15,$E20)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(R$15,$E20)+LEN(R$15))+1,SEARCH(")",$E20,FIND(R$15,$E20)+LEN(R$15))-(FIND(R$15,$E20)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(S$15,$E20)+LEN(S$15))+1,SEARCH(")",$E20,FIND(S$15,$E20)+LEN(S$15))-(FIND(S$15,$E20)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(T$15,$E20)+LEN(T$15))+1,SEARCH(")",$E20,FIND(T$15,$E20)+LEN(T$15))-(FIND(T$15,$E20)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U20" s="8">
-        <f>IF($E20="All",$J20/COUNTA($B$39:$B$54),IFERROR($J20/$D20*MID($E20,(FIND(U$15,$E20)+LEN(U$15))+1,SEARCH(")",$E20,FIND(U$15,$E20)+LEN(U$15))-(FIND(U$15,$E20)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E20)),$J20/(LEN($E20)-LEN(SUBSTITUTE($E20,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V20" s="8"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="19">
-        <v>12</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="B21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="40">
+        <v>15.95</v>
+      </c>
+      <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="E21" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="7">
         <f>C21*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.4111509618519729</v>
+        <v>1.8756548201282472</v>
       </c>
       <c r="H21" s="7">
         <f>C21*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.9563090968373005</v>
+        <v>2.6002608412129118</v>
       </c>
       <c r="I21" s="7">
         <f>C21*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="7">
-        <f>SUM(C21,G21:I21)</f>
-        <v>15.367460058689273</v>
+        <f t="shared" si="2"/>
+        <v>20.425915661341158</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(L$15,$E21)+LEN(L$15))+1,SEARCH(")",$E21,FIND(L$15,$E21)+LEN(L$15))-(FIND(L$15,$E21)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(M$15,$E21)+LEN(M$15))+1,SEARCH(")",$E21,FIND(M$15,$E21)+LEN(M$15))-(FIND(M$15,$E21)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(N$15,$E21)+LEN(N$15))+1,SEARCH(")",$E21,FIND(N$15,$E21)+LEN(N$15))-(FIND(N$15,$E21)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(O$15,$E21)+LEN(O$15))+1,SEARCH(")",$E21,FIND(O$15,$E21)+LEN(O$15))-(FIND(O$15,$E21)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
-        <v>15.367460058689273</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(P$15,$E21)+LEN(P$15))+1,SEARCH(")",$E21,FIND(P$15,$E21)+LEN(P$15))-(FIND(P$15,$E21)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(Q$15,$E21)+LEN(Q$15))+1,SEARCH(")",$E21,FIND(Q$15,$E21)+LEN(Q$15))-(FIND(Q$15,$E21)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20.425915661341158</v>
       </c>
       <c r="R21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(R$15,$E21)+LEN(R$15))+1,SEARCH(")",$E21,FIND(R$15,$E21)+LEN(R$15))-(FIND(R$15,$E21)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(S$15,$E21)+LEN(S$15))+1,SEARCH(")",$E21,FIND(S$15,$E21)+LEN(S$15))-(FIND(S$15,$E21)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(T$15,$E21)+LEN(T$15))+1,SEARCH(")",$E21,FIND(T$15,$E21)+LEN(T$15))-(FIND(T$15,$E21)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U21" s="8">
-        <f>IF($E21="All",$J21/COUNTA($B$39:$B$54),IFERROR($J21/$D21*MID($E21,(FIND(U$15,$E21)+LEN(U$15))+1,SEARCH(")",$E21,FIND(U$15,$E21)+LEN(U$15))-(FIND(U$15,$E21)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E21)),$J21/(LEN($E21)-LEN(SUBSTITUTE($E21,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V21" s="8"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="19">
-        <v>14.95</v>
-      </c>
-      <c r="D22" s="18">
+      <c r="B22" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="40">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="15"/>
+      <c r="E22" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="16"/>
       <c r="G22" s="7">
         <f>C22*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.7580589066405827</v>
+        <v>1.0524834257145963</v>
       </c>
       <c r="H22" s="7">
         <f>C22*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.4372350831431366</v>
+        <v>1.4590805347244864</v>
       </c>
       <c r="I22" s="7">
         <f>C22*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J22" s="7">
-        <f>SUM(C22,G22:I22)</f>
-        <v>19.145293989783717</v>
+        <f t="shared" si="2"/>
+        <v>11.461563960439083</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(L$15,$E22)+LEN(L$15))+1,SEARCH(")",$E22,FIND(L$15,$E22)+LEN(L$15))-(FIND(L$15,$E22)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(M$15,$E22)+LEN(M$15))+1,SEARCH(")",$E22,FIND(M$15,$E22)+LEN(M$15))-(FIND(M$15,$E22)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
-        <v>9.5726469948918584</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="N22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(N$15,$E22)+LEN(N$15))+1,SEARCH(")",$E22,FIND(N$15,$E22)+LEN(N$15))-(FIND(N$15,$E22)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
-        <v>9.5726469948918584</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(O$15,$E22)+LEN(O$15))+1,SEARCH(")",$E22,FIND(O$15,$E22)+LEN(O$15))-(FIND(O$15,$E22)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(P$15,$E22)+LEN(P$15))+1,SEARCH(")",$E22,FIND(P$15,$E22)+LEN(P$15))-(FIND(P$15,$E22)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(Q$15,$E22)+LEN(Q$15))+1,SEARCH(")",$E22,FIND(Q$15,$E22)+LEN(Q$15))-(FIND(Q$15,$E22)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>11.461563960439083</v>
       </c>
       <c r="R22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(R$15,$E22)+LEN(R$15))+1,SEARCH(")",$E22,FIND(R$15,$E22)+LEN(R$15))-(FIND(R$15,$E22)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(S$15,$E22)+LEN(S$15))+1,SEARCH(")",$E22,FIND(S$15,$E22)+LEN(S$15))-(FIND(S$15,$E22)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(T$15,$E22)+LEN(T$15))+1,SEARCH(")",$E22,FIND(T$15,$E22)+LEN(T$15))-(FIND(T$15,$E22)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U22" s="8">
-        <f>IF($E22="All",$J22/COUNTA($B$39:$B$54),IFERROR($J22/$D22*MID($E22,(FIND(U$15,$E22)+LEN(U$15))+1,SEARCH(")",$E22,FIND(U$15,$E22)+LEN(U$15))-(FIND(U$15,$E22)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E22)),$J22/(LEN($E22)-LEN(SUBSTITUTE($E22,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V22" s="8"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="19">
-        <v>16.95</v>
-      </c>
-      <c r="D23" s="18">
+      <c r="B23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="40">
+        <v>10</v>
+      </c>
+      <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="15"/>
+      <c r="E23" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="16"/>
       <c r="G23" s="7">
         <f>C23*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.9932507336159115</v>
+        <v>1.1759591348766441</v>
       </c>
       <c r="H23" s="7">
         <f>C23*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.7632865992826869</v>
+        <v>1.6302575806977504</v>
       </c>
       <c r="I23" s="7">
         <f>C23*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J23" s="7">
-        <f>SUM(C23,G23:I23)</f>
-        <v>21.706537332898598</v>
+        <f t="shared" si="2"/>
+        <v>12.806216715574394</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(L$15,$E23)+LEN(L$15))+1,SEARCH(")",$E23,FIND(L$15,$E23)+LEN(L$15))-(FIND(L$15,$E23)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
-        <v>21.706537332898598</v>
+        <f t="shared" si="1"/>
+        <v>12.806216715574394</v>
       </c>
       <c r="M23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(M$15,$E23)+LEN(M$15))+1,SEARCH(")",$E23,FIND(M$15,$E23)+LEN(M$15))-(FIND(M$15,$E23)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(N$15,$E23)+LEN(N$15))+1,SEARCH(")",$E23,FIND(N$15,$E23)+LEN(N$15))-(FIND(N$15,$E23)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(O$15,$E23)+LEN(O$15))+1,SEARCH(")",$E23,FIND(O$15,$E23)+LEN(O$15))-(FIND(O$15,$E23)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(P$15,$E23)+LEN(P$15))+1,SEARCH(")",$E23,FIND(P$15,$E23)+LEN(P$15))-(FIND(P$15,$E23)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(Q$15,$E23)+LEN(Q$15))+1,SEARCH(")",$E23,FIND(Q$15,$E23)+LEN(Q$15))-(FIND(Q$15,$E23)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(R$15,$E23)+LEN(R$15))+1,SEARCH(")",$E23,FIND(R$15,$E23)+LEN(R$15))-(FIND(R$15,$E23)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(S$15,$E23)+LEN(S$15))+1,SEARCH(")",$E23,FIND(S$15,$E23)+LEN(S$15))-(FIND(S$15,$E23)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(T$15,$E23)+LEN(T$15))+1,SEARCH(")",$E23,FIND(T$15,$E23)+LEN(T$15))-(FIND(T$15,$E23)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U23" s="8">
-        <f>IF($E23="All",$J23/COUNTA($B$39:$B$54),IFERROR($J23/$D23*MID($E23,(FIND(U$15,$E23)+LEN(U$15))+1,SEARCH(")",$E23,FIND(U$15,$E23)+LEN(U$15))-(FIND(U$15,$E23)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E23)),$J23/(LEN($E23)-LEN(SUBSTITUTE($E23,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="8"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="19">
-        <v>15.95</v>
-      </c>
-      <c r="D24" s="18">
+      <c r="B24" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="40">
+        <v>6.22</v>
+      </c>
+      <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="7">
         <f>C24*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.8756548201282472</v>
+        <v>0.73144658189327261</v>
       </c>
       <c r="H24" s="7">
         <f>C24*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>2.6002608412129118</v>
+        <v>1.0140202151940008</v>
       </c>
       <c r="I24" s="7">
         <f>C24*VLOOKUP("Fee %",B:C,2,0)</f>
         <v>0</v>
       </c>
       <c r="J24" s="7">
-        <f>SUM(C24,G24:I24)</f>
-        <v>20.425915661341158</v>
+        <f t="shared" si="2"/>
+        <v>7.9654667970872728</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(L$15,$E24)+LEN(L$15))+1,SEARCH(")",$E24,FIND(L$15,$E24)+LEN(L$15))-(FIND(L$15,$E24)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(M$15,$E24)+LEN(M$15))+1,SEARCH(")",$E24,FIND(M$15,$E24)+LEN(M$15))-(FIND(M$15,$E24)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(N$15,$E24)+LEN(N$15))+1,SEARCH(")",$E24,FIND(N$15,$E24)+LEN(N$15))-(FIND(N$15,$E24)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(O$15,$E24)+LEN(O$15))+1,SEARCH(")",$E24,FIND(O$15,$E24)+LEN(O$15))-(FIND(O$15,$E24)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
-        <v>20.425915661341158</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="P24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(P$15,$E24)+LEN(P$15))+1,SEARCH(")",$E24,FIND(P$15,$E24)+LEN(P$15))-(FIND(P$15,$E24)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(Q$15,$E24)+LEN(Q$15))+1,SEARCH(")",$E24,FIND(Q$15,$E24)+LEN(Q$15))-(FIND(Q$15,$E24)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(R$15,$E24)+LEN(R$15))+1,SEARCH(")",$E24,FIND(R$15,$E24)+LEN(R$15))-(FIND(R$15,$E24)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(S$15,$E24)+LEN(S$15))+1,SEARCH(")",$E24,FIND(S$15,$E24)+LEN(S$15))-(FIND(S$15,$E24)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(T$15,$E24)+LEN(T$15))+1,SEARCH(")",$E24,FIND(T$15,$E24)+LEN(T$15))-(FIND(T$15,$E24)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U24" s="8">
-        <f>IF($E24="All",$J24/COUNTA($B$39:$B$54),IFERROR($J24/$D24*MID($E24,(FIND(U$15,$E24)+LEN(U$15))+1,SEARCH(")",$E24,FIND(U$15,$E24)+LEN(U$15))-(FIND(U$15,$E24)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E24)),$J24/(LEN($E24)-LEN(SUBSTITUTE($E24,";",""))+1),0)))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="8"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="19">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="D25" s="18">
-        <v>1</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="7">
-        <f>C25*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.0524834257145963</v>
-      </c>
-      <c r="H25" s="7">
-        <f>C25*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.4590805347244864</v>
-      </c>
-      <c r="I25" s="7">
-        <f>C25*VLOOKUP("Fee %",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <f>SUM(C25,G25:I25)</f>
-        <v>11.461563960439083</v>
-      </c>
+    <row r="25" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(L$15,$E25)+LEN(L$15))+1,SEARCH(")",$E25,FIND(L$15,$E25)+LEN(L$15))-(FIND(L$15,$E25)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(M$15,$E25)+LEN(M$15))+1,SEARCH(")",$E25,FIND(M$15,$E25)+LEN(M$15))-(FIND(M$15,$E25)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(N$15,$E25)+LEN(N$15))+1,SEARCH(")",$E25,FIND(N$15,$E25)+LEN(N$15))-(FIND(N$15,$E25)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(O$15,$E25)+LEN(O$15))+1,SEARCH(")",$E25,FIND(O$15,$E25)+LEN(O$15))-(FIND(O$15,$E25)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>11.461563960439083</v>
-      </c>
-      <c r="P25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(P$15,$E25)+LEN(P$15))+1,SEARCH(")",$E25,FIND(P$15,$E25)+LEN(P$15))-(FIND(P$15,$E25)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(Q$15,$E25)+LEN(Q$15))+1,SEARCH(")",$E25,FIND(Q$15,$E25)+LEN(Q$15))-(FIND(Q$15,$E25)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(R$15,$E25)+LEN(R$15))+1,SEARCH(")",$E25,FIND(R$15,$E25)+LEN(R$15))-(FIND(R$15,$E25)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(S$15,$E25)+LEN(S$15))+1,SEARCH(")",$E25,FIND(S$15,$E25)+LEN(S$15))-(FIND(S$15,$E25)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(T$15,$E25)+LEN(T$15))+1,SEARCH(")",$E25,FIND(T$15,$E25)+LEN(T$15))-(FIND(T$15,$E25)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="8">
-        <f>IF($E25="All",$J25/COUNTA($B$39:$B$54),IFERROR($J25/$D25*MID($E25,(FIND(U$15,$E25)+LEN(U$15))+1,SEARCH(")",$E25,FIND(U$15,$E25)+LEN(U$15))-(FIND(U$15,$E25)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E25)),$J25/(LEN($E25)-LEN(SUBSTITUTE($E25,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="V25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="19">
-        <v>10</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="7">
-        <f>C26*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>1.1759591348766441</v>
-      </c>
-      <c r="H26" s="7">
-        <f>C26*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.6302575806977504</v>
-      </c>
-      <c r="I26" s="7">
-        <f>C26*VLOOKUP("Fee %",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <f>SUM(C26,G26:I26)</f>
-        <v>12.806216715574394</v>
-      </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(L$15,$E26)+LEN(L$15))+1,SEARCH(")",$E26,FIND(L$15,$E26)+LEN(L$15))-(FIND(L$15,$E26)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(M$15,$E26)+LEN(M$15))+1,SEARCH(")",$E26,FIND(M$15,$E26)+LEN(M$15))-(FIND(M$15,$E26)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(N$15,$E26)+LEN(N$15))+1,SEARCH(")",$E26,FIND(N$15,$E26)+LEN(N$15))-(FIND(N$15,$E26)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(O$15,$E26)+LEN(O$15))+1,SEARCH(")",$E26,FIND(O$15,$E26)+LEN(O$15))-(FIND(O$15,$E26)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(P$15,$E26)+LEN(P$15))+1,SEARCH(")",$E26,FIND(P$15,$E26)+LEN(P$15))-(FIND(P$15,$E26)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>12.806216715574394</v>
-      </c>
-      <c r="Q26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(Q$15,$E26)+LEN(Q$15))+1,SEARCH(")",$E26,FIND(Q$15,$E26)+LEN(Q$15))-(FIND(Q$15,$E26)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(R$15,$E26)+LEN(R$15))+1,SEARCH(")",$E26,FIND(R$15,$E26)+LEN(R$15))-(FIND(R$15,$E26)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(S$15,$E26)+LEN(S$15))+1,SEARCH(")",$E26,FIND(S$15,$E26)+LEN(S$15))-(FIND(S$15,$E26)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(T$15,$E26)+LEN(T$15))+1,SEARCH(")",$E26,FIND(T$15,$E26)+LEN(T$15))-(FIND(T$15,$E26)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="8">
-        <f>IF($E26="All",$J26/COUNTA($B$39:$B$54),IFERROR($J26/$D26*MID($E26,(FIND(U$15,$E26)+LEN(U$15))+1,SEARCH(")",$E26,FIND(U$15,$E26)+LEN(U$15))-(FIND(U$15,$E26)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E26)),$J26/(LEN($E26)-LEN(SUBSTITUTE($E26,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="8"/>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="48">
+        <f>SUM(C12:C25)</f>
+        <v>184.01999999999998</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="43" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="19">
-        <v>6.22</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="7">
-        <f>C27*VLOOKUP("Tax %",B:C,2,0)</f>
-        <v>0.73144658189327261</v>
-      </c>
-      <c r="H27" s="7">
-        <f>C27*VLOOKUP("Tip %",B:C,2,0)</f>
-        <v>1.0140202151940008</v>
-      </c>
-      <c r="I27" s="7">
-        <f>C27*VLOOKUP("Fee %",B:C,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <f>SUM(C27,G27:I27)</f>
-        <v>7.9654667970872728</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(L$15,$E27)+LEN(L$15))+1,SEARCH(")",$E27,FIND(L$15,$E27)+LEN(L$15))-(FIND(L$15,$E27)+LEN(L$15))-1),IF(ISNUMBER(SEARCH(L$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>1.5930933594174546</v>
-      </c>
-      <c r="M27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(M$15,$E27)+LEN(M$15))+1,SEARCH(")",$E27,FIND(M$15,$E27)+LEN(M$15))-(FIND(M$15,$E27)+LEN(M$15))-1),IF(ISNUMBER(SEARCH(M$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>1.5930933594174546</v>
-      </c>
-      <c r="N27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(N$15,$E27)+LEN(N$15))+1,SEARCH(")",$E27,FIND(N$15,$E27)+LEN(N$15))-(FIND(N$15,$E27)+LEN(N$15))-1),IF(ISNUMBER(SEARCH(N$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>1.5930933594174546</v>
-      </c>
-      <c r="O27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(O$15,$E27)+LEN(O$15))+1,SEARCH(")",$E27,FIND(O$15,$E27)+LEN(O$15))-(FIND(O$15,$E27)+LEN(O$15))-1),IF(ISNUMBER(SEARCH(O$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>1.5930933594174546</v>
-      </c>
-      <c r="P27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(P$15,$E27)+LEN(P$15))+1,SEARCH(")",$E27,FIND(P$15,$E27)+LEN(P$15))-(FIND(P$15,$E27)+LEN(P$15))-1),IF(ISNUMBER(SEARCH(P$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>1.5930933594174546</v>
-      </c>
-      <c r="Q27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(Q$15,$E27)+LEN(Q$15))+1,SEARCH(")",$E27,FIND(Q$15,$E27)+LEN(Q$15))-(FIND(Q$15,$E27)+LEN(Q$15))-1),IF(ISNUMBER(SEARCH(Q$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(R$15,$E27)+LEN(R$15))+1,SEARCH(")",$E27,FIND(R$15,$E27)+LEN(R$15))-(FIND(R$15,$E27)+LEN(R$15))-1),IF(ISNUMBER(SEARCH(R$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(S$15,$E27)+LEN(S$15))+1,SEARCH(")",$E27,FIND(S$15,$E27)+LEN(S$15))-(FIND(S$15,$E27)+LEN(S$15))-1),IF(ISNUMBER(SEARCH(S$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(T$15,$E27)+LEN(T$15))+1,SEARCH(")",$E27,FIND(T$15,$E27)+LEN(T$15))-(FIND(T$15,$E27)+LEN(T$15))-1),IF(ISNUMBER(SEARCH(T$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="8">
-        <f>IF($E27="All",$J27/COUNTA($B$39:$B$54),IFERROR($J27/$D27*MID($E27,(FIND(U$15,$E27)+LEN(U$15))+1,SEARCH(")",$E27,FIND(U$15,$E27)+LEN(U$15))-(FIND(U$15,$E27)+LEN(U$15))-1),IF(ISNUMBER(SEARCH(U$15,$E27)),$J27/(LEN($E27)-LEN(SUBSTITUTE($E27,";",""))+1),0)))</f>
-        <v>0</v>
-      </c>
-      <c r="V27" s="8"/>
-    </row>
-    <row r="28" spans="2:22" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
+      <c r="B27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="42">
+        <v>21.64</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="30"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="42">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2">
-        <f>SUM(C15:C28)</f>
-        <v>184.01999999999998</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>58</v>
-      </c>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="37">
-        <v>21.64</v>
+      <c r="B30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="47">
+        <f>SUM(C26:C29)</f>
+        <v>235.65999999999997</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="38" t="s">
-        <v>60</v>
-      </c>
+      <c r="E30" s="30"/>
+      <c r="G30" s="17"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="37">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+      <c r="B31" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
+    </row>
+    <row r="32" spans="2:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="21"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="30"/>
+      <c r="G35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="37">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="41">
-        <f>SUM(C29:C32)</f>
-        <v>235.65999999999997</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="29"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="37" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="20"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="30"/>
-    </row>
-    <row r="38" spans="2:9" ht="15" x14ac:dyDescent="0.35">
-      <c r="B38" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="39" t="str" cm="1">
-        <f t="array" ref="B39:B43">_xlfn.UNIQUE(_xlfn.TEXTSPLIT(
+      <c r="J35"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="44" t="str" cm="1">
+        <f t="array" ref="B36:B41">_xlfn.UNIQUE(_xlfn.TEXTSPLIT(
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
@@ -2103,7 +2195,7 @@
 SUBSTITUTE(
 SUBSTITUTE(
 SUBSTITUTE(
-SUBSTITUTE(_xlfn.TEXTJOIN(";",TRUE,E16:E28)," ",""),
+SUBSTITUTE(_xlfn.TEXTJOIN(";",TRUE,E13:E25)," ",""),
 "(",""),
 ")",""),
 "1",""),
@@ -2116,239 +2208,299 @@
 "8",""),
 "9",""),
 ,";",TRUE))</f>
+        <v>maggie</v>
+      </c>
+      <c r="C36" s="45">
+        <f t="shared" ref="C36:C51" si="3">SUM(INDEX($L$12:$AE$120,,MATCH($B36,$L$12:$AE$12,0)))</f>
+        <v>23.051190088033909</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="30"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="17">
+        <f>C36-G36</f>
+        <v>23.051190088033909</v>
+      </c>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="46" t="str">
         <v>joe</v>
       </c>
-      <c r="C39" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B39,$L$15:$AE$15,0)))</f>
-        <v>52.753929138137153</v>
+      <c r="C37" s="45">
+        <f t="shared" si="3"/>
+        <v>56.283322464949464</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="30"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="17">
+        <f>C37-G37</f>
+        <v>56.283322464949464</v>
+      </c>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="46" t="str">
+        <v>sophia</v>
+      </c>
+      <c r="C38" s="45">
+        <f t="shared" si="3"/>
+        <v>36.465702097598083</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="30"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="17">
+        <f>C38-G38</f>
+        <v>36.465702097598083</v>
+      </c>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="46" t="str">
+        <v>cole</v>
+      </c>
+      <c r="C39" s="45">
+        <f t="shared" si="3"/>
+        <v>50.552540484729917</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="E39" s="29"/>
+      <c r="E39" s="30"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="39" t="str">
-        <v>cole</v>
-      </c>
-      <c r="C40" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B40,$L$15:$AE$15,0)))</f>
-        <v>81.599932289968478</v>
+      <c r="H39" s="17">
+        <f>C39-G39</f>
+        <v>50.552540484729917</v>
+      </c>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="46" t="str">
+        <v>TBD</v>
+      </c>
+      <c r="C40" s="45">
+        <f t="shared" si="3"/>
+        <v>14.086838387131833</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="E40" s="29"/>
+      <c r="E40" s="30"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="39" t="str">
-        <v>sophia</v>
-      </c>
-      <c r="C41" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B41,$L$15:$AE$15,0)))</f>
-        <v>38.058795457015535</v>
+      <c r="H40" s="17">
+        <f>C40-G40</f>
+        <v>14.086838387131833</v>
+      </c>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="46" t="str">
+        <v>emma</v>
+      </c>
+      <c r="C41" s="45">
+        <f t="shared" si="3"/>
+        <v>47.254939680469519</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="E41" s="29"/>
+      <c r="E41" s="30"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="39" t="str">
-        <v>emma</v>
-      </c>
-      <c r="C42" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B42,$L$15:$AE$15,0)))</f>
-        <v>48.848033039886971</v>
+      <c r="H41" s="17">
+        <f t="shared" ref="H41:H51" si="4">C41-G41</f>
+        <v>47.254939680469519</v>
+      </c>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="46"/>
+      <c r="C42" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="E42" s="29"/>
+      <c r="E42" s="30"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43" s="39" t="str">
-        <v>maggie</v>
-      </c>
-      <c r="C43" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B43,$L$15:$AE$15,0)))</f>
-        <v>14.399310074991849</v>
+      <c r="H42" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="46"/>
+      <c r="C43" s="45">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="29"/>
+      <c r="E43" s="30"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44" s="39"/>
-      <c r="C44" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B44,$L$15:$AE$15,0)))</f>
+      <c r="H43" s="17">
+        <f t="shared" ref="H43" si="5">C43-G43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="46"/>
+      <c r="C44" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="29"/>
+      <c r="E44" s="30"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45" s="39"/>
-      <c r="C45" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B45,$L$15:$AE$15,0)))</f>
+      <c r="H44" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="46"/>
+      <c r="C45" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="29"/>
+      <c r="E45" s="30"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46" s="39"/>
-      <c r="C46" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B46,$L$15:$AE$15,0)))</f>
+      <c r="H45" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="46"/>
+      <c r="C46" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="29"/>
+      <c r="E46" s="30"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47" s="39"/>
-      <c r="C47" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B47,$L$15:$AE$15,0)))</f>
+      <c r="H46" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="46"/>
+      <c r="C47" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="29"/>
+      <c r="E47" s="30"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="39"/>
-      <c r="C48" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B48,$L$15:$AE$15,0)))</f>
+      <c r="H47" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="46"/>
+      <c r="C48" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="29"/>
+      <c r="E48" s="30"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
+      <c r="H48" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="39"/>
-      <c r="C49" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B49,$L$15:$AE$15,0)))</f>
+      <c r="B49" s="46"/>
+      <c r="C49" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="29"/>
+      <c r="E49" s="30"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
+      <c r="H49" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="17"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="39"/>
-      <c r="C50" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B50,$L$15:$AE$15,0)))</f>
+      <c r="B50" s="46"/>
+      <c r="C50" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="29"/>
+      <c r="E50" s="30"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
+      <c r="H50" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="17"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="39"/>
-      <c r="C51" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B51,$L$15:$AE$15,0)))</f>
+      <c r="B51" s="46"/>
+      <c r="C51" s="45">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="29"/>
+      <c r="E51" s="30"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="39"/>
-      <c r="C52" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B52,$L$15:$AE$15,0)))</f>
-        <v>0</v>
-      </c>
+      <c r="H51" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="17"/>
+    </row>
+    <row r="52" spans="2:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="29"/>
+      <c r="E52" s="30"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="39"/>
-      <c r="C53" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B53,$L$15:$AE$15,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="29"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+    </row>
+    <row r="53" spans="2:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="32"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="39"/>
-      <c r="C54" s="40">
-        <f>SUM(INDEX($L$15:$AE$123,,MATCH($B54,$L$15:$AE$15,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="29"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="2:10" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="29"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D57" s="21"/>
-      <c r="E57" s="32"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="17" t="s">
-        <v>12</v>
-      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="33"/>
+      <c r="G54" s="23">
+        <f>SUM(G35:G51)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="23">
+        <f>SUM(H35:H51)</f>
+        <v>227.69453320291274</v>
+      </c>
+      <c r="I54" s="23"/>
+      <c r="J54" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="10"/>
+      <c r="C62" s="14"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="9"/>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="10"/>
-      <c r="C67" s="14"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="10"/>
-      <c r="C68" s="14"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>